--- a/biology/Botanique/Jardin_botanique_de_Göteborg/Jardin_botanique_de_Göteborg.xlsx
+++ b/biology/Botanique/Jardin_botanique_de_Göteborg/Jardin_botanique_de_Göteborg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_botanique_de_G%C3%B6teborg</t>
+          <t>Jardin_botanique_de_Göteborg</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin botanique de Göteborg (en suédois Göteborgs botaniska trädgård) est le plus grand jardin botanique de Suède. D'une superficie aménagée de 20 hectares environ, il présente quelque 16 000 espèces de végétaux différents.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardin_botanique_de_G%C3%B6teborg</t>
+          <t>Jardin_botanique_de_Göteborg</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Entrée</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin est ouvert au public toute l'année. Il ouvre tous les jours à 9 heures et ferme au coucher du soleil.
 On demande 20 couronnes suédoises ou 2 euros pour entrer dans le parc (non obligatoire).
